--- a/관리산출물/관리산출물PMP_PSP/PSP/김미성/신수동크러셔_psp_20141188_김미성.xlsx
+++ b/관리산출물/관리산출물PMP_PSP/PSP/김미성/신수동크러셔_psp_20141188_김미성.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seomi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF84E775-4996-4E29-AA4D-A8A8ACB54F2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB143F5-3A65-4234-920E-CF4F62677283}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="김미성" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Time Recording Log</t>
   </si>
@@ -99,10 +99,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>공공데이터 전처리 및 머신러닝 모델 돌리기</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>SAD 작성하기</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -111,7 +107,19 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>머신러닝 모델 서버 실행파일 개발</t>
+    <t>머신러닝 모델 서버 개발 및 테스트</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>머신러닝 모델 개발</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>머신러닝 알고리즘 관련 SAD 작성</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>머신러닝 모델 수정 및 추천 결과 확인</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -637,7 +645,7 @@
   <dimension ref="A1:H151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2"/>
@@ -745,21 +753,21 @@
         <v>0.625</v>
       </c>
       <c r="C7" s="8">
-        <v>0.72916666666666663</v>
+        <v>0.8125</v>
       </c>
       <c r="D7" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E7" s="10">
         <f t="shared" si="0"/>
-        <v>129.99999999999994</v>
+        <v>240</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>16</v>
       </c>
       <c r="H7" s="13">
         <f>SUM(E6:E127)</f>
-        <v>2060</v>
+        <v>3130.0000000000005</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1">
@@ -770,14 +778,14 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C8" s="8">
-        <v>0.70833333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D8" s="9">
         <v>30</v>
       </c>
       <c r="E8" s="10">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>269.99999999999989</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>18</v>
@@ -812,14 +820,14 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C10" s="8">
-        <v>0.75</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D10" s="9">
         <v>20</v>
       </c>
       <c r="E10" s="10">
-        <f t="shared" ref="E10:E16" si="2">(C10-B10)*1440-D10</f>
-        <v>100.00000000000006</v>
+        <f t="shared" ref="E10:E13" si="2">(C10-B10)*1440-D10</f>
+        <v>220.00000000000011</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>18</v>
@@ -864,228 +872,260 @@
         <v>200.00000000000011</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1">
       <c r="A13" s="7">
-        <v>43754</v>
+        <v>43748</v>
       </c>
       <c r="B13" s="8">
-        <v>0.625</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="C13" s="8">
-        <v>0.67708333333333337</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="D13" s="9">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E13" s="10">
         <f t="shared" si="2"/>
-        <v>75.000000000000057</v>
+        <v>239.99999999999989</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1">
       <c r="A14" s="7">
-        <v>43763</v>
+        <v>43750</v>
       </c>
       <c r="B14" s="8">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="C14" s="8">
-        <v>0.75</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D14" s="9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E14" s="10">
-        <f t="shared" si="2"/>
-        <v>170</v>
+        <f t="shared" ref="E14:E22" si="3">(C14-B14)*1440-D14</f>
+        <v>120.00000000000006</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1">
       <c r="A15" s="7">
-        <v>43766</v>
+        <v>43754</v>
       </c>
       <c r="B15" s="8">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="C15" s="8">
-        <v>0.79166666666666663</v>
+        <v>0.67708333333333337</v>
       </c>
       <c r="D15" s="9">
         <v>0</v>
       </c>
       <c r="E15" s="10">
-        <f t="shared" si="2"/>
-        <v>59.999999999999943</v>
+        <f t="shared" ref="E15:E24" si="4">(C15-B15)*1440-D15</f>
+        <v>75.000000000000057</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1">
       <c r="A16" s="7">
-        <v>43777</v>
+        <v>43763</v>
       </c>
       <c r="B16" s="8">
         <v>0.625</v>
       </c>
       <c r="C16" s="8">
-        <v>0.78125</v>
+        <v>0.75</v>
       </c>
       <c r="D16" s="9">
         <v>10</v>
       </c>
       <c r="E16" s="10">
-        <f t="shared" si="2"/>
-        <v>215</v>
+        <f t="shared" si="4"/>
+        <v>170</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="12.75" customHeight="1">
       <c r="A17" s="7">
-        <v>43782</v>
+        <v>43766</v>
       </c>
       <c r="B17" s="8">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="C17" s="8">
-        <v>0.6875</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D17" s="9">
         <v>0</v>
       </c>
       <c r="E17" s="10">
-        <f t="shared" si="0"/>
-        <v>90</v>
+        <f t="shared" si="4"/>
+        <v>59.999999999999943</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="12.75" customHeight="1">
       <c r="A18" s="7">
-        <v>43794</v>
+        <v>43777</v>
       </c>
       <c r="B18" s="8">
-        <v>0.83333333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="C18" s="8">
-        <v>0.97916666666666663</v>
+        <v>0.78125</v>
       </c>
       <c r="D18" s="9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E18" s="10">
-        <f t="shared" si="0"/>
-        <v>189.99999999999989</v>
+        <f t="shared" si="4"/>
+        <v>215</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="12.75" customHeight="1">
       <c r="A19" s="7">
-        <v>43795</v>
+        <v>43782</v>
       </c>
       <c r="B19" s="8">
-        <v>0.64583333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="C19" s="8">
-        <v>0.70833333333333337</v>
+        <v>0.6875</v>
       </c>
       <c r="D19" s="9">
         <v>0</v>
       </c>
       <c r="E19" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="12.75" customHeight="1">
       <c r="A20" s="7">
+        <v>43794</v>
+      </c>
+      <c r="B20" s="8">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D20" s="9">
+        <v>20</v>
+      </c>
+      <c r="E20" s="10">
+        <f t="shared" si="4"/>
+        <v>189.99999999999989</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A21" s="7">
+        <v>43795</v>
+      </c>
+      <c r="B21" s="8">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C21" s="8">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0</v>
+      </c>
+      <c r="E21" s="10">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A22" s="7">
         <v>43796</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B22" s="8">
         <v>0.5</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C22" s="8">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D22" s="9">
         <v>70</v>
       </c>
-      <c r="E20" s="10">
-        <f t="shared" si="0"/>
+      <c r="E22" s="10">
+        <f t="shared" si="4"/>
         <v>349.99999999999994</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="9">
-        <v>0</v>
-      </c>
-      <c r="E21" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="9">
-        <v>0</v>
-      </c>
-      <c r="E22" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="11"/>
+      <c r="F22" s="11" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
+      <c r="A23" s="7">
+        <v>43805</v>
+      </c>
+      <c r="B23" s="8">
+        <v>0.625</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="D23" s="9">
         <v>0</v>
       </c>
       <c r="E23" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="11"/>
+        <f t="shared" si="4"/>
+        <v>239.99999999999994</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
+      <c r="A24" s="7">
+        <v>43805</v>
+      </c>
+      <c r="B24" s="8">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="D24" s="9">
         <v>0</v>
       </c>
       <c r="E24" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="11"/>
+        <f t="shared" si="4"/>
+        <v>119.99999999999989</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="12.75" customHeight="1">
       <c r="A25" s="11"/>
@@ -1264,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="10">
-        <f t="shared" ref="E38:E69" si="3">(C38-B38)*1440-D38</f>
+        <f t="shared" ref="E38:E69" si="5">(C38-B38)*1440-D38</f>
         <v>0</v>
       </c>
       <c r="F38" s="11"/>
@@ -1277,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F39" s="11"/>
@@ -1290,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F40" s="11"/>
@@ -1303,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F41" s="11"/>
@@ -1316,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F42" s="11"/>
@@ -1329,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F43" s="11"/>
@@ -1342,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F44" s="11"/>
@@ -1355,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F45" s="11"/>
@@ -1368,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F46" s="11"/>
@@ -1381,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F47" s="11"/>
@@ -1394,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F48" s="11"/>
@@ -1407,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F49" s="11"/>
@@ -1420,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F50" s="11"/>
@@ -1433,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F51" s="11"/>
@@ -1446,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F52" s="11"/>
@@ -1459,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="E53" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F53" s="11"/>
@@ -1472,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F54" s="11"/>
@@ -1485,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="E55" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F55" s="11"/>
@@ -1498,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F56" s="11"/>
@@ -1511,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="E57" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F57" s="11"/>
@@ -1524,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F58" s="11"/>
@@ -1537,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="E59" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F59" s="11"/>
@@ -1550,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="E60" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F60" s="11"/>
@@ -1563,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F61" s="11"/>
@@ -1576,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F62" s="11"/>
@@ -1589,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="E63" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F63" s="11"/>
@@ -1602,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="E64" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F64" s="11"/>
@@ -1615,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="E65" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F65" s="11"/>
@@ -1628,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="E66" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F66" s="11"/>
@@ -1641,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F67" s="11"/>
@@ -1654,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F68" s="11"/>
@@ -1667,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="E69" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F69" s="11"/>
@@ -1680,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="10">
-        <f t="shared" ref="E70:E101" si="4">(C70-B70)*1440-D70</f>
+        <f t="shared" ref="E70:E101" si="6">(C70-B70)*1440-D70</f>
         <v>0</v>
       </c>
       <c r="F70" s="11"/>
@@ -1693,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="E71" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F71" s="11"/>
@@ -1706,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="E72" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F72" s="11"/>
@@ -1719,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="E73" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F73" s="11"/>
@@ -1732,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="E74" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F74" s="11"/>
@@ -1745,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="E75" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F75" s="11"/>
@@ -1758,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="E76" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F76" s="11"/>
@@ -1771,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="E77" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F77" s="11"/>
@@ -1784,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="E78" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F78" s="11"/>
@@ -1797,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="E79" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F79" s="11"/>
@@ -1810,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="E80" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F80" s="11"/>
@@ -1823,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="E81" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F81" s="11"/>
@@ -1836,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="E82" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F82" s="11"/>
@@ -1849,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="E83" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F83" s="11"/>
@@ -1862,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="E84" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F84" s="11"/>
@@ -1875,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="E85" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F85" s="11"/>
@@ -1888,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="E86" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F86" s="11"/>
@@ -1901,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="E87" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F87" s="11"/>
@@ -1914,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="E88" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F88" s="11"/>
@@ -1927,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="E89" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F89" s="11"/>
@@ -1940,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="E90" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F90" s="11"/>
@@ -1953,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="E91" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F91" s="11"/>
@@ -1966,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="E92" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F92" s="11"/>
@@ -1979,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="E93" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F93" s="11"/>
@@ -1992,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="E94" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F94" s="11"/>
@@ -2005,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="E95" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F95" s="11"/>
@@ -2018,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F96" s="11"/>
@@ -2031,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="E97" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F97" s="11"/>
@@ -2044,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="E98" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F98" s="11"/>
@@ -2057,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="E99" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F99" s="11"/>
@@ -2070,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="E100" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F100" s="11"/>
@@ -2083,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="E101" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F101" s="11"/>
@@ -2096,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="E102" s="10">
-        <f t="shared" ref="E102:E127" si="5">(C102-B102)*1440-D102</f>
+        <f t="shared" ref="E102:E127" si="7">(C102-B102)*1440-D102</f>
         <v>0</v>
       </c>
       <c r="F102" s="11"/>
@@ -2109,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="E103" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F103" s="11"/>
@@ -2122,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="E104" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F104" s="11"/>
@@ -2135,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="E105" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F105" s="11"/>
@@ -2148,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="E106" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F106" s="11"/>
@@ -2161,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="E107" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F107" s="11"/>
@@ -2174,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="E108" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F108" s="11"/>
@@ -2187,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="E109" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F109" s="11"/>
@@ -2200,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="E110" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F110" s="11"/>
@@ -2213,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="E111" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F111" s="11"/>
@@ -2226,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="E112" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F112" s="11"/>
@@ -2239,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="E113" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F113" s="11"/>
@@ -2252,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="E114" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F114" s="11"/>
@@ -2265,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="E115" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F115" s="11"/>
@@ -2278,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="E116" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F116" s="11"/>
@@ -2291,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="E117" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F117" s="11"/>
@@ -2304,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="E118" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F118" s="11"/>
@@ -2317,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="E119" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F119" s="11"/>
@@ -2330,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="E120" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F120" s="11"/>
@@ -2343,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="E121" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F121" s="11"/>
@@ -2356,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="E122" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F122" s="11"/>
@@ -2369,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="E123" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F123" s="11"/>
@@ -2382,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="E124" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F124" s="11"/>
@@ -2395,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="E125" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F125" s="11"/>
@@ -2408,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="E126" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F126" s="11"/>
@@ -2421,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="E127" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F127" s="11"/>
